--- a/map_World/Pour mémoire.xlsx
+++ b/map_World/Pour mémoire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HM0B47FL\Documents\GitHub\mymaps\map_Monde\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\mymaps\Github\mymaps\map_World\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AA6754-859C-48FB-A702-59EC72E3F080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33032F1E-B695-4AAA-888A-95674C47EB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14250" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Europe" sheetId="2" r:id="rId1"/>
@@ -697,9 +697,6 @@
     <t>FF9FF3</t>
   </si>
   <si>
-    <t>E48BED</t>
-  </si>
-  <si>
     <t>CA77E6</t>
   </si>
   <si>
@@ -764,6 +761,9 @@
   </si>
   <si>
     <t>#0abde3</t>
+  </si>
+  <si>
+    <t>#E48BED</t>
   </si>
 </sst>
 </file>
@@ -805,10 +805,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1092,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE411C2-3FE0-4B9B-8442-AC40F1E76E9F}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,16 +1103,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>221</v>
       </c>
       <c r="H1" t="s">
@@ -1120,423 +1120,430 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="2"/>
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="2"/>
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="2"/>
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="2"/>
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="2"/>
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="2"/>
       <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="2"/>
       <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="2"/>
       <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>222</v>
+      <c r="D10" s="3" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="2"/>
       <c r="C11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="2"/>
       <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="2"/>
       <c r="C13" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="2"/>
       <c r="C14" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="2"/>
       <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="2"/>
       <c r="C16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="2"/>
       <c r="C17" t="s">
         <v>122</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="3"/>
+      <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>223</v>
+      <c r="D18" s="3" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="2"/>
       <c r="C19" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="2"/>
       <c r="C20" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="2"/>
       <c r="C21" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="2"/>
       <c r="C22" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="2"/>
       <c r="C23" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="3"/>
+      <c r="B24" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>224</v>
+      <c r="D24" s="3" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="2"/>
       <c r="C25" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="2"/>
       <c r="C26" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="2"/>
       <c r="C27" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="2"/>
       <c r="C28" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="2"/>
       <c r="C29" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="2"/>
       <c r="C30" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="2"/>
       <c r="C31" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="2"/>
+      <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3" t="s">
+      <c r="A32" s="3"/>
+      <c r="B32" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C32" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>225</v>
+      <c r="D32" s="3" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="2"/>
       <c r="C33" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="2"/>
+      <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="2"/>
       <c r="C34" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="2"/>
+      <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="2"/>
       <c r="C35" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="2"/>
+      <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="3"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="2"/>
       <c r="C36" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="2"/>
+      <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="3"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="2"/>
       <c r="C37" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="3"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="2"/>
       <c r="C38" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="2"/>
+      <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="3" t="s">
+      <c r="A39" s="3"/>
+      <c r="B39" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C39" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>226</v>
+      <c r="D39" s="3" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="3"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="2"/>
       <c r="C40" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="2"/>
+      <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="3"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="2"/>
       <c r="C41" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="2"/>
+      <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="3"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="2"/>
       <c r="C42" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="2"/>
+      <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="3"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="2"/>
       <c r="C43" t="s">
         <v>48</v>
       </c>
-      <c r="D43" s="2"/>
+      <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="3"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="2"/>
       <c r="C44" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="2"/>
+      <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="3"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="2"/>
       <c r="C45" t="s">
         <v>50</v>
       </c>
-      <c r="D45" s="2"/>
+      <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="3"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="2"/>
       <c r="C46" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="2"/>
+      <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="3"/>
+      <c r="A47" s="3"/>
+      <c r="B47" s="2"/>
       <c r="C47" t="s">
         <v>52</v>
       </c>
-      <c r="D47" s="2"/>
+      <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2" t="s">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C48" t="s">
         <v>54</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>227</v>
+      <c r="D48" s="3" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
       <c r="C49" t="s">
         <v>55</v>
       </c>
-      <c r="D49" s="2"/>
+      <c r="D49" s="3"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
       <c r="C50" t="s">
         <v>56</v>
       </c>
-      <c r="D50" s="2"/>
+      <c r="D50" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D39:D47"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="D1:D9"/>
+    <mergeCell ref="D10:D17"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="D24:D31"/>
+    <mergeCell ref="D32:D38"/>
     <mergeCell ref="B32:B38"/>
     <mergeCell ref="B39:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -1545,13 +1552,6 @@
     <mergeCell ref="B1:B9"/>
     <mergeCell ref="B18:B23"/>
     <mergeCell ref="B24:B31"/>
-    <mergeCell ref="D39:D47"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="D1:D9"/>
-    <mergeCell ref="D10:D17"/>
-    <mergeCell ref="D18:D23"/>
-    <mergeCell ref="D24:D31"/>
-    <mergeCell ref="D32:D38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1572,353 +1572,360 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>228</v>
+      <c r="D1" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="H1" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="3"/>
+      <c r="B2" s="2"/>
       <c r="C2" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
+      <c r="B3" s="2"/>
       <c r="C3" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
+      <c r="B4" s="2"/>
       <c r="C4" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
+      <c r="B5" s="2"/>
       <c r="C5" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C6" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>229</v>
+      <c r="D6" s="3" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
+      <c r="B7" s="2"/>
       <c r="C7" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
+      <c r="B8" s="2"/>
       <c r="C8" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
+      <c r="B9" s="2"/>
       <c r="C9" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
+      <c r="B10" s="2"/>
       <c r="C10" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
+      <c r="B11" s="2"/>
       <c r="C11" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
+      <c r="B12" s="2"/>
       <c r="C12" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
+      <c r="B13" s="2"/>
       <c r="C13" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
+      <c r="B14" s="2"/>
       <c r="C14" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
+      <c r="B15" s="2"/>
       <c r="C15" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
+      <c r="B16" s="2"/>
       <c r="C16" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C17" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>230</v>
+      <c r="D17" s="3" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
+      <c r="B18" s="2"/>
       <c r="C18" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
+      <c r="B19" s="2"/>
       <c r="C19" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
+      <c r="B20" s="2"/>
       <c r="C20" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
+      <c r="B21" s="2"/>
       <c r="C21" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
+      <c r="B22" s="2"/>
       <c r="C22" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
+      <c r="B23" s="2"/>
       <c r="C23" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="3"/>
     </row>
     <row r="24" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C24" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>231</v>
+      <c r="D24" s="3" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
+      <c r="B25" s="2"/>
       <c r="C25" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="3"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
+      <c r="B26" s="2"/>
       <c r="C26" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C27" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>232</v>
+      <c r="D27" s="3" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
+      <c r="B28" s="2"/>
       <c r="C28" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
+      <c r="B29" s="2"/>
       <c r="C29" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="3"/>
+      <c r="B30" s="2"/>
       <c r="C30" t="s">
         <v>90</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="3"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
+      <c r="B31" s="2"/>
       <c r="C31" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="2"/>
+      <c r="D31" s="3"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
+      <c r="B32" s="2"/>
       <c r="C32" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" s="3"/>
     </row>
     <row r="33" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C33" t="s">
         <v>94</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>233</v>
+      <c r="D33" s="3" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="3"/>
+      <c r="B34" s="2"/>
       <c r="C34" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="2"/>
+      <c r="D34" s="3"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="3"/>
+      <c r="B35" s="2"/>
       <c r="C35" t="s">
         <v>96</v>
       </c>
-      <c r="D35" s="2"/>
+      <c r="D35" s="3"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="3"/>
+      <c r="B36" s="2"/>
       <c r="C36" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="2"/>
+      <c r="D36" s="3"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="3"/>
+      <c r="B37" s="2"/>
       <c r="C37" t="s">
         <v>98</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="3"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="3"/>
+      <c r="B38" s="2"/>
       <c r="C38" t="s">
         <v>99</v>
       </c>
-      <c r="D38" s="2"/>
+      <c r="D38" s="3"/>
     </row>
     <row r="39" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C39" t="s">
         <v>101</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>234</v>
+      <c r="D39" s="3" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="3"/>
+      <c r="B40" s="2"/>
       <c r="C40" t="s">
         <v>102</v>
       </c>
-      <c r="D40" s="2"/>
+      <c r="D40" s="3"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="3"/>
+      <c r="B41" s="2"/>
       <c r="C41" t="s">
         <v>103</v>
       </c>
-      <c r="D41" s="2"/>
+      <c r="D41" s="3"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="3"/>
+      <c r="B42" s="2"/>
       <c r="C42" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="2"/>
+      <c r="D42" s="3"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="3"/>
+      <c r="B43" s="2"/>
       <c r="C43" t="s">
         <v>105</v>
       </c>
-      <c r="D43" s="2"/>
+      <c r="D43" s="3"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="3"/>
+      <c r="B44" s="2"/>
       <c r="C44" t="s">
         <v>106</v>
       </c>
-      <c r="D44" s="2"/>
+      <c r="D44" s="3"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="3"/>
+      <c r="B45" s="2"/>
       <c r="C45" t="s">
         <v>107</v>
       </c>
-      <c r="D45" s="2"/>
+      <c r="D45" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D33:D38"/>
+    <mergeCell ref="D39:D45"/>
+    <mergeCell ref="D1:D5"/>
+    <mergeCell ref="D6:D16"/>
+    <mergeCell ref="D17:D23"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D27:D32"/>
     <mergeCell ref="B33:B38"/>
     <mergeCell ref="B39:B45"/>
     <mergeCell ref="B1:B5"/>
@@ -1926,13 +1933,6 @@
     <mergeCell ref="B17:B23"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B27:B32"/>
-    <mergeCell ref="D33:D38"/>
-    <mergeCell ref="D39:D45"/>
-    <mergeCell ref="D1:D5"/>
-    <mergeCell ref="D6:D16"/>
-    <mergeCell ref="D17:D23"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="D27:D32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1953,331 +1953,331 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C1" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>235</v>
+      <c r="D1" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="I1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="3"/>
+      <c r="B2" s="2"/>
       <c r="C2" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
+      <c r="B3" s="2"/>
       <c r="C3" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
+      <c r="B4" s="2"/>
       <c r="C4" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
+      <c r="B5" s="2"/>
       <c r="C5" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C6" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>236</v>
+      <c r="D6" s="3" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
+      <c r="B7" s="2"/>
       <c r="C7" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
+      <c r="B8" s="2"/>
       <c r="C8" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
+      <c r="B9" s="2"/>
       <c r="C9" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
+      <c r="B10" s="2"/>
       <c r="C10" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
+      <c r="B11" s="2"/>
       <c r="C11" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
+      <c r="B12" s="2"/>
       <c r="C12" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C13" t="s">
         <v>124</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>237</v>
+      <c r="D13" s="3" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
+      <c r="B14" s="2"/>
       <c r="C14" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
+      <c r="B15" s="2"/>
       <c r="C15" t="s">
         <v>126</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
+      <c r="B16" s="2"/>
       <c r="C16" t="s">
         <v>127</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
+      <c r="B17" s="2"/>
       <c r="C17" t="s">
         <v>128</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
+      <c r="B18" s="2"/>
       <c r="C18" t="s">
         <v>129</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
+      <c r="B19" s="2"/>
       <c r="C19" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
+      <c r="B20" s="2"/>
       <c r="C20" t="s">
         <v>131</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
+      <c r="B21" s="2"/>
       <c r="C21" t="s">
         <v>132</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
+      <c r="B22" s="2"/>
       <c r="C22" t="s">
         <v>133</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
+      <c r="B23" s="2"/>
       <c r="C23" t="s">
         <v>134</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="3"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
+      <c r="B24" s="2"/>
       <c r="C24" t="s">
         <v>135</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="3"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C25" t="s">
         <v>137</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>238</v>
+      <c r="D25" s="3" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
+      <c r="B26" s="2"/>
       <c r="C26" t="s">
         <v>138</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
+      <c r="B27" s="2"/>
       <c r="C27" t="s">
         <v>139</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="3"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
+      <c r="B28" s="2"/>
       <c r="C28" t="s">
         <v>140</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
+      <c r="B29" s="2"/>
       <c r="C29" t="s">
         <v>141</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="3"/>
+      <c r="B30" s="2"/>
       <c r="C30" t="s">
         <v>142</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="3"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
+      <c r="B31" s="2"/>
       <c r="C31" t="s">
         <v>143</v>
       </c>
-      <c r="D31" s="2"/>
+      <c r="D31" s="3"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
+      <c r="B32" s="2"/>
       <c r="C32" t="s">
         <v>144</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" s="3"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="3"/>
+      <c r="B33" s="2"/>
       <c r="C33" t="s">
         <v>145</v>
       </c>
-      <c r="D33" s="2"/>
+      <c r="D33" s="3"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="3"/>
+      <c r="B34" s="2"/>
       <c r="C34" t="s">
         <v>146</v>
       </c>
-      <c r="D34" s="2"/>
+      <c r="D34" s="3"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="3"/>
+      <c r="B35" s="2"/>
       <c r="C35" t="s">
         <v>147</v>
       </c>
-      <c r="D35" s="2"/>
+      <c r="D35" s="3"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="3"/>
+      <c r="B36" s="2"/>
       <c r="C36" t="s">
         <v>148</v>
       </c>
-      <c r="D36" s="2"/>
+      <c r="D36" s="3"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="3"/>
+      <c r="B37" s="2"/>
       <c r="C37" t="s">
         <v>149</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="3"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="3"/>
+      <c r="B38" s="2"/>
       <c r="C38" t="s">
         <v>150</v>
       </c>
-      <c r="D38" s="2"/>
+      <c r="D38" s="3"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="3"/>
+      <c r="B39" s="2"/>
       <c r="C39" t="s">
         <v>151</v>
       </c>
-      <c r="D39" s="2"/>
+      <c r="D39" s="3"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="3"/>
+      <c r="B40" s="2"/>
       <c r="C40" t="s">
         <v>152</v>
       </c>
-      <c r="D40" s="2"/>
+      <c r="D40" s="3"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="3"/>
+      <c r="B41" s="2"/>
       <c r="C41" t="s">
         <v>153</v>
       </c>
-      <c r="D41" s="2"/>
+      <c r="D41" s="3"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="3"/>
+      <c r="B42" s="2"/>
       <c r="C42" t="s">
         <v>154</v>
       </c>
-      <c r="D42" s="2"/>
+      <c r="D42" s="3"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="3"/>
+      <c r="B43" s="2"/>
       <c r="C43" t="s">
         <v>155</v>
       </c>
-      <c r="D43" s="2"/>
+      <c r="D43" s="3"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="3"/>
+      <c r="B44" s="2"/>
       <c r="C44" t="s">
         <v>156</v>
       </c>
-      <c r="D44" s="2"/>
+      <c r="D44" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2309,425 +2309,425 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C1" t="s">
         <v>158</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>239</v>
+      <c r="D1" s="3" t="s">
+        <v>238</v>
       </c>
       <c r="F1" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="3"/>
+      <c r="B2" s="2"/>
       <c r="C2" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
+      <c r="B3" s="2"/>
       <c r="C3" t="s">
         <v>160</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
+      <c r="B4" s="2"/>
       <c r="C4" t="s">
         <v>161</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
+      <c r="B5" s="2"/>
       <c r="C5" t="s">
         <v>162</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
+      <c r="B6" s="2"/>
       <c r="C6" t="s">
         <v>163</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
+      <c r="B7" s="2"/>
       <c r="C7" t="s">
         <v>164</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
+      <c r="B8" s="2"/>
       <c r="C8" t="s">
         <v>165</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
+      <c r="B9" s="2"/>
       <c r="C9" t="s">
         <v>166</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
+      <c r="B10" s="2"/>
       <c r="C10" t="s">
         <v>167</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
+      <c r="B11" s="2"/>
       <c r="C11" t="s">
         <v>168</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
+      <c r="B12" s="2"/>
       <c r="C12" t="s">
         <v>169</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C13" t="s">
         <v>171</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>240</v>
+      <c r="D13" s="3" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
+      <c r="B14" s="2"/>
       <c r="C14" t="s">
         <v>172</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
+      <c r="B15" s="2"/>
       <c r="C15" t="s">
         <v>173</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
+      <c r="B16" s="2"/>
       <c r="C16" t="s">
         <v>174</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
+      <c r="B17" s="2"/>
       <c r="C17" t="s">
         <v>175</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
+      <c r="B18" s="2"/>
       <c r="C18" t="s">
         <v>176</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
+      <c r="B19" s="2"/>
       <c r="C19" t="s">
         <v>177</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
+      <c r="B20" s="2"/>
       <c r="C20" t="s">
         <v>178</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
+      <c r="B21" s="2"/>
       <c r="C21" t="s">
         <v>179</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
+      <c r="B22" s="2"/>
       <c r="C22" t="s">
         <v>180</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
+      <c r="B23" s="2"/>
       <c r="C23" t="s">
         <v>181</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="3"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
+      <c r="B24" s="2"/>
       <c r="C24" t="s">
         <v>182</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="3"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
+      <c r="B25" s="2"/>
       <c r="C25" t="s">
         <v>183</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="3"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
+      <c r="B26" s="2"/>
       <c r="C26" t="s">
         <v>184</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
+      <c r="B27" s="2"/>
       <c r="C27" t="s">
         <v>185</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="3"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>186</v>
       </c>
       <c r="C28" t="s">
         <v>187</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>241</v>
+      <c r="D28" s="3" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
+      <c r="B29" s="2"/>
       <c r="C29" t="s">
         <v>188</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="3"/>
+      <c r="B30" s="2"/>
       <c r="C30" t="s">
         <v>189</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="3"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
+      <c r="B31" s="2"/>
       <c r="C31" t="s">
         <v>190</v>
       </c>
-      <c r="D31" s="2"/>
+      <c r="D31" s="3"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
+      <c r="B32" s="2"/>
       <c r="C32" t="s">
         <v>191</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" s="3"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="3"/>
+      <c r="B33" s="2"/>
       <c r="C33" t="s">
         <v>192</v>
       </c>
-      <c r="D33" s="2"/>
+      <c r="D33" s="3"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="3"/>
+      <c r="B34" s="2"/>
       <c r="C34" t="s">
         <v>193</v>
       </c>
-      <c r="D34" s="2"/>
+      <c r="D34" s="3"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="3"/>
+      <c r="B35" s="2"/>
       <c r="C35" t="s">
         <v>194</v>
       </c>
-      <c r="D35" s="2"/>
+      <c r="D35" s="3"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="3"/>
+      <c r="B36" s="2"/>
       <c r="C36" t="s">
         <v>195</v>
       </c>
-      <c r="D36" s="2"/>
+      <c r="D36" s="3"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="3"/>
+      <c r="B37" s="2"/>
       <c r="C37" t="s">
         <v>196</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="3"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="3"/>
+      <c r="B38" s="2"/>
       <c r="C38" t="s">
         <v>197</v>
       </c>
-      <c r="D38" s="2"/>
+      <c r="D38" s="3"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="3"/>
+      <c r="B39" s="2"/>
       <c r="C39" t="s">
         <v>198</v>
       </c>
-      <c r="D39" s="2"/>
+      <c r="D39" s="3"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C40" t="s">
         <v>200</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>242</v>
+      <c r="D40" s="3" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="3"/>
+      <c r="B41" s="2"/>
       <c r="C41" t="s">
         <v>201</v>
       </c>
-      <c r="D41" s="2"/>
+      <c r="D41" s="3"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="3"/>
+      <c r="B42" s="2"/>
       <c r="C42" t="s">
         <v>202</v>
       </c>
-      <c r="D42" s="2"/>
+      <c r="D42" s="3"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="3"/>
+      <c r="B43" s="2"/>
       <c r="C43" t="s">
         <v>203</v>
       </c>
-      <c r="D43" s="2"/>
+      <c r="D43" s="3"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="3"/>
+      <c r="B44" s="2"/>
       <c r="C44" t="s">
         <v>204</v>
       </c>
-      <c r="D44" s="2"/>
+      <c r="D44" s="3"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="3"/>
+      <c r="B45" s="2"/>
       <c r="C45" t="s">
         <v>205</v>
       </c>
-      <c r="D45" s="2"/>
+      <c r="D45" s="3"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="3"/>
+      <c r="B46" s="2"/>
       <c r="C46" t="s">
         <v>206</v>
       </c>
-      <c r="D46" s="2"/>
+      <c r="D46" s="3"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="3"/>
+      <c r="B47" s="2"/>
       <c r="C47" t="s">
         <v>207</v>
       </c>
-      <c r="D47" s="2"/>
+      <c r="D47" s="3"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="3"/>
+      <c r="B48" s="2"/>
       <c r="C48" t="s">
         <v>208</v>
       </c>
-      <c r="D48" s="2"/>
+      <c r="D48" s="3"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="3"/>
+      <c r="B49" s="2"/>
       <c r="C49" t="s">
         <v>209</v>
       </c>
-      <c r="D49" s="2"/>
+      <c r="D49" s="3"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="3"/>
+      <c r="B50" s="2"/>
       <c r="C50" t="s">
         <v>210</v>
       </c>
-      <c r="D50" s="2"/>
+      <c r="D50" s="3"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>211</v>
       </c>
       <c r="C51" t="s">
         <v>211</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>243</v>
+      <c r="D51" s="3" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="3"/>
+      <c r="B52" s="2"/>
       <c r="C52" t="s">
         <v>212</v>
       </c>
-      <c r="D52" s="2"/>
+      <c r="D52" s="3"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="3"/>
+      <c r="B53" s="2"/>
       <c r="C53" t="s">
         <v>213</v>
       </c>
-      <c r="D53" s="2"/>
+      <c r="D53" s="3"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="3"/>
+      <c r="B54" s="2"/>
       <c r="C54" t="s">
         <v>214</v>
       </c>
-      <c r="D54" s="2"/>
+      <c r="D54" s="3"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="3"/>
+      <c r="B55" s="2"/>
       <c r="C55" t="s">
         <v>215</v>
       </c>
-      <c r="D55" s="2"/>
+      <c r="D55" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D1:D12"/>
+    <mergeCell ref="D13:D27"/>
+    <mergeCell ref="D28:D39"/>
+    <mergeCell ref="D40:D50"/>
+    <mergeCell ref="D51:D55"/>
     <mergeCell ref="B1:B12"/>
     <mergeCell ref="B13:B27"/>
     <mergeCell ref="B28:B39"/>
     <mergeCell ref="B40:B50"/>
     <mergeCell ref="B51:B55"/>
-    <mergeCell ref="D1:D12"/>
-    <mergeCell ref="D13:D27"/>
-    <mergeCell ref="D28:D39"/>
-    <mergeCell ref="D40:D50"/>
-    <mergeCell ref="D51:D55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2737,7 +2737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7419EC8-10A5-4423-ACED-73E8CE21648A}">
   <dimension ref="G1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -2750,7 +2750,7 @@
     </row>
     <row r="2" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
